--- a/spliced/walkingToRunning/2023-03-24_10-01-42/data_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-24_10-01-42/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-2.320991039276123</v>
+        <v>-5.570007801055908</v>
       </c>
       <c r="D2" t="n">
-        <v>-8.731703758239746</v>
+        <v>-35.83580017089844</v>
       </c>
       <c r="E2" t="n">
-        <v>11.60772895812988</v>
+        <v>22.41282081604004</v>
       </c>
       <c r="F2" t="n">
-        <v>0.366751213598507</v>
+        <v>-0.03355996282946583</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.883752259408463</v>
+        <v>-0.1584969647691545</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5377000983087165</v>
+        <v>-0.0141987274892259</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-7.232173919677734</v>
+        <v>-2.182258129119873</v>
       </c>
       <c r="D3" t="n">
-        <v>-8.070121765136719</v>
+        <v>-7.31383228302002</v>
       </c>
       <c r="E3" t="n">
-        <v>10.86189651489258</v>
+        <v>33.1801872253418</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.4980152645466445</v>
+        <v>2.232942344609228</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.9560822888931177</v>
+        <v>-2.220868759447247</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9776749544262071</v>
+        <v>-1.187766118819664</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-5.570007801055908</v>
+        <v>-1.57672917842865</v>
       </c>
       <c r="D4" t="n">
-        <v>-35.83580017089844</v>
+        <v>-10.6974925994873</v>
       </c>
       <c r="E4" t="n">
-        <v>22.41282081604004</v>
+        <v>15.88597106933594</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.03355996282946583</v>
+        <v>1.551477467791645</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1584969647691545</v>
+        <v>0.9860338054088031</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0141987274892259</v>
+        <v>-2.580682175500044</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-2.182258129119873</v>
+        <v>9.968832015991213</v>
       </c>
       <c r="D5" t="n">
-        <v>-7.31383228302002</v>
+        <v>-22.49884223937988</v>
       </c>
       <c r="E5" t="n">
-        <v>33.1801872253418</v>
+        <v>30.88003540039062</v>
       </c>
       <c r="F5" t="n">
-        <v>2.232942344609228</v>
+        <v>-2.007183966429317</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.220868759447247</v>
+        <v>3.929720215175458</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.187766118819664</v>
+        <v>0.6425367645595088</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-1.57672917842865</v>
+        <v>-6.721622467041016</v>
       </c>
       <c r="D6" t="n">
-        <v>-10.6974925994873</v>
+        <v>-1.676235437393188</v>
       </c>
       <c r="E6" t="n">
-        <v>15.88597106933594</v>
+        <v>-11.5780611038208</v>
       </c>
       <c r="F6" t="n">
-        <v>1.551477467791645</v>
+        <v>-5.864261772321608</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9860338054088031</v>
+        <v>5.580999001212737</v>
       </c>
       <c r="H6" t="n">
-        <v>-2.580682175500044</v>
+        <v>2.13303363693427</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9.968832015991213</v>
+        <v>-32.24742889404297</v>
       </c>
       <c r="D7" t="n">
-        <v>-22.49884223937988</v>
+        <v>-20.76686477661133</v>
       </c>
       <c r="E7" t="n">
-        <v>30.88003540039062</v>
+        <v>7.779660701751709</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.007183966429317</v>
+        <v>-1.424133648783631</v>
       </c>
       <c r="G7" t="n">
-        <v>3.929720215175458</v>
+        <v>-2.927099547771023</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6425367645595088</v>
+        <v>1.214256319940471</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-6.721622467041016</v>
+        <v>-7.299997329711914</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.676235437393188</v>
+        <v>-29.29754447937012</v>
       </c>
       <c r="E8" t="n">
-        <v>-11.5780611038208</v>
+        <v>42.08726501464844</v>
       </c>
       <c r="F8" t="n">
-        <v>-5.864261772321608</v>
+        <v>7.334702552475461</v>
       </c>
       <c r="G8" t="n">
-        <v>5.580999001212737</v>
+        <v>-7.529888727650148</v>
       </c>
       <c r="H8" t="n">
-        <v>2.13303363693427</v>
+        <v>-2.842065592730211</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-32.24742889404297</v>
+        <v>-13.7584810256958</v>
       </c>
       <c r="D9" t="n">
-        <v>-20.76686477661133</v>
+        <v>-9.336126327514648</v>
       </c>
       <c r="E9" t="n">
-        <v>7.779660701751709</v>
+        <v>20.6390266418457</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.424133648783631</v>
+        <v>4.214317862661773</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.927099547771023</v>
+        <v>-3.208229954198307</v>
       </c>
       <c r="H9" t="n">
-        <v>1.214256319940471</v>
+        <v>-4.081179956471704</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-7.299997329711914</v>
+        <v>24.05830383300781</v>
       </c>
       <c r="D10" t="n">
-        <v>-29.29754447937012</v>
+        <v>-37.75975799560547</v>
       </c>
       <c r="E10" t="n">
-        <v>42.08726501464844</v>
+        <v>69.02017974853516</v>
       </c>
       <c r="F10" t="n">
-        <v>7.334702552475461</v>
+        <v>-2.042688489330464</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.529888727650148</v>
+        <v>3.253492230213918</v>
       </c>
       <c r="H10" t="n">
-        <v>-2.842065592730211</v>
+        <v>-1.052057455785544</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-13.7584810256958</v>
+        <v>-65.68665313720703</v>
       </c>
       <c r="D11" t="n">
-        <v>-9.336126327514648</v>
+        <v>-20.87689781188965</v>
       </c>
       <c r="E11" t="n">
-        <v>20.6390266418457</v>
+        <v>-14.51115989685059</v>
       </c>
       <c r="F11" t="n">
-        <v>4.214317862661773</v>
+        <v>-8.89284183371872</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.208229954198307</v>
+        <v>6.183227533139049</v>
       </c>
       <c r="H11" t="n">
-        <v>-4.081179956471704</v>
+        <v>8.303981626996203</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>24.05830383300781</v>
+        <v>-3.672505617141724</v>
       </c>
       <c r="D12" t="n">
-        <v>-37.75975799560547</v>
+        <v>-5.974431037902832</v>
       </c>
       <c r="E12" t="n">
-        <v>69.02017974853516</v>
+        <v>3.619078159332275</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.042688489330464</v>
+        <v>1.101257697395411</v>
       </c>
       <c r="G12" t="n">
-        <v>3.253492230213918</v>
+        <v>-8.100705602894388</v>
       </c>
       <c r="H12" t="n">
-        <v>-1.052057455785544</v>
+        <v>4.845630360686418</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-65.68665313720703</v>
+        <v>-15.47988033294678</v>
       </c>
       <c r="D13" t="n">
-        <v>-20.87689781188965</v>
+        <v>-32.08433532714844</v>
       </c>
       <c r="E13" t="n">
-        <v>-14.51115989685059</v>
+        <v>16.76184463500977</v>
       </c>
       <c r="F13" t="n">
-        <v>-8.89284183371872</v>
+        <v>6.093993388347799</v>
       </c>
       <c r="G13" t="n">
-        <v>6.183227533139049</v>
+        <v>-8.757804864682157</v>
       </c>
       <c r="H13" t="n">
-        <v>8.303981626996203</v>
+        <v>1.959031731445559</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-3.672505617141724</v>
+        <v>9.497495651245115</v>
       </c>
       <c r="D14" t="n">
-        <v>-5.974431037902832</v>
+        <v>-6.459360122680664</v>
       </c>
       <c r="E14" t="n">
-        <v>3.619078159332275</v>
+        <v>12.91139125823975</v>
       </c>
       <c r="F14" t="n">
-        <v>1.101257697395411</v>
+        <v>5.412965199962155</v>
       </c>
       <c r="G14" t="n">
-        <v>-8.100705602894388</v>
+        <v>-0.5916063237634659</v>
       </c>
       <c r="H14" t="n">
-        <v>4.845630360686418</v>
+        <v>-1.592202567165649</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-15.47988033294678</v>
+        <v>-4.22635555267334</v>
       </c>
       <c r="D15" t="n">
-        <v>-32.08433532714844</v>
+        <v>-2.0812087059021</v>
       </c>
       <c r="E15" t="n">
-        <v>16.76184463500977</v>
+        <v>10.98652267456055</v>
       </c>
       <c r="F15" t="n">
-        <v>6.093993388347799</v>
+        <v>1.925117330521559</v>
       </c>
       <c r="G15" t="n">
-        <v>-8.757804864682157</v>
+        <v>2.407113150780237</v>
       </c>
       <c r="H15" t="n">
-        <v>1.959031731445559</v>
+        <v>-2.267917759485144</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>9.497495651245115</v>
+        <v>12.04420471191406</v>
       </c>
       <c r="D16" t="n">
-        <v>-6.459360122680664</v>
+        <v>-23.34278678894043</v>
       </c>
       <c r="E16" t="n">
-        <v>12.91139125823975</v>
+        <v>30.86811256408692</v>
       </c>
       <c r="F16" t="n">
-        <v>5.412965199962155</v>
+        <v>-2.498231235498205</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.5916063237634659</v>
+        <v>2.901872266153379</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.592202567165649</v>
+        <v>1.981700023694026</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-4.22635555267334</v>
+        <v>-40.70948791503906</v>
       </c>
       <c r="D17" t="n">
-        <v>-2.0812087059021</v>
+        <v>10.1422061920166</v>
       </c>
       <c r="E17" t="n">
-        <v>10.98652267456055</v>
+        <v>-4.144575119018555</v>
       </c>
       <c r="F17" t="n">
-        <v>1.925117330521559</v>
+        <v>-4.308581977157101</v>
       </c>
       <c r="G17" t="n">
-        <v>2.407113150780237</v>
+        <v>6.365314957517947</v>
       </c>
       <c r="H17" t="n">
-        <v>-2.267917759485144</v>
+        <v>-0.1142475042283233</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>12.04420471191406</v>
+        <v>-17.44337844848633</v>
       </c>
       <c r="D18" t="n">
-        <v>-23.34278678894043</v>
+        <v>-33.51113891601562</v>
       </c>
       <c r="E18" t="n">
-        <v>30.86811256408692</v>
+        <v>-9.501523017883301</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.498231235498205</v>
+        <v>-1.724872384752597</v>
       </c>
       <c r="G18" t="n">
-        <v>2.901872266153379</v>
+        <v>9.335920878819055</v>
       </c>
       <c r="H18" t="n">
-        <v>1.981700023694026</v>
+        <v>-6.735600778034694</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-40.70948791503906</v>
+        <v>-12.57210731506348</v>
       </c>
       <c r="D19" t="n">
-        <v>10.1422061920166</v>
+        <v>-66.97329711914062</v>
       </c>
       <c r="E19" t="n">
-        <v>-4.144575119018555</v>
+        <v>49.08029174804688</v>
       </c>
       <c r="F19" t="n">
-        <v>-4.308581977157101</v>
+        <v>2.584916405055822</v>
       </c>
       <c r="G19" t="n">
-        <v>6.365314957517947</v>
+        <v>-0.09003212140948058</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.1142475042283233</v>
+        <v>-6.952868482340953</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-17.44337844848633</v>
+        <v>-9.933971405029297</v>
       </c>
       <c r="D20" t="n">
-        <v>-33.51113891601562</v>
+        <v>-2.512709140777588</v>
       </c>
       <c r="E20" t="n">
-        <v>-9.501523017883301</v>
+        <v>6.143205642700195</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.724872384752597</v>
+        <v>3.838851762854538</v>
       </c>
       <c r="G20" t="n">
-        <v>9.335920878819055</v>
+        <v>-1.53637689981414</v>
       </c>
       <c r="H20" t="n">
-        <v>-6.735600778034694</v>
+        <v>-4.963172649004442</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-12.57210731506348</v>
+        <v>21.00619125366211</v>
       </c>
       <c r="D21" t="n">
-        <v>-66.97329711914062</v>
+        <v>-11.01493453979492</v>
       </c>
       <c r="E21" t="n">
-        <v>49.08029174804688</v>
+        <v>19.27869033813477</v>
       </c>
       <c r="F21" t="n">
-        <v>2.584916405055822</v>
+        <v>1.802320775223111</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.09003212140948058</v>
+        <v>0.8488230512749766</v>
       </c>
       <c r="H21" t="n">
-        <v>-6.952868482340953</v>
+        <v>-0.6512930319176782</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-6.04071855545044</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-12.84956741333008</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-4.132137298583984</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-4.243776159812123</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.1656510622604825</v>
+      </c>
+      <c r="H22" t="n">
+        <v>6.680505474161589</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>34.18217468261719</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.69527006149292</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-2.47593355178833</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-3.268159332482785</v>
+      </c>
+      <c r="G23" t="n">
+        <v>6.903478548393394</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.484958121495333</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-27.50531387329102</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-56.38927841186523</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-12.15304946899414</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.061862719725376</v>
+      </c>
+      <c r="G24" t="n">
+        <v>5.545756017014141</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-2.003967119299857</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>41.86726379394531</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-60.87873458862305</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-19.13644981384277</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5.571206705910729</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.27861049012367</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.5144404683794082</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-7.41383171081543</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.0885686874389648</v>
+      </c>
+      <c r="E26" t="n">
+        <v>9.766034126281738</v>
+      </c>
+      <c r="F26" t="n">
+        <v>7.170254665872369</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-1.238433612429565</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.1954094016033365</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-51.14746856689453</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-84.02630615234375</v>
+      </c>
+      <c r="E27" t="n">
+        <v>86.47578430175781</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.018974213866787</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.231977397610628</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.4505931842401376</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-39.8954963684082</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-2.818742275238037</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-19.23029327392578</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-9.593666403930271</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-3.09781322716174</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-1.724484086777074</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1.352512359619141</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-3.199073314666748</v>
+      </c>
+      <c r="E29" t="n">
+        <v>9.475702285766602</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-4.399059822840986</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-10.81391397322185</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-1.643179933847163</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-6.012904644012451</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-19.74169921875</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2.084371328353882</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4.520313150394069</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-8.092394739944785</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.05753792109697597</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>10.77586936950684</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-30.89251708984375</v>
+      </c>
+      <c r="E31" t="n">
+        <v>17.9653205871582</v>
+      </c>
+      <c r="F31" t="n">
+        <v>5.967537736300274</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-5.414584435291156</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-1.474100663795217</v>
       </c>
     </row>
   </sheetData>
